--- a/TP N3/Excels/AG_200Ciclos_Torneo.xlsx
+++ b/TP N3/Excels/AG_200Ciclos_Torneo.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.037e-05</v>
+        <v>4.502e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>3.153e-05</v>
+        <v>3.176e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>3.788e-05</v>
+        <v>3.747e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19852.00</t>
+          <t>22210.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;Neuquén-&gt;La Plata-&gt;Viedma-&gt;Santa Rosa-&gt;Ushuaia-&gt;San Luis-&gt;San Juan-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>21 &amp; Santiago del Estero\2 &amp; Corrientes\1 &amp; Córdoba\6 &amp; Mendoza\3 &amp; Formosa\0 &amp; CABA\7 &amp; Neuquén\10 &amp; Rawson\9 &amp; Posadas\16 &amp; Salta\5 &amp; La Rioja\22 &amp; Ushuaia\12 &amp; Río Gallegos\18 &amp; San Luis\20 &amp; Santa Rosa\19 &amp; Santa Fe\23 &amp; Viedma\15 &amp; San Salvador de Jujuy\17 &amp; San Juan\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\4 &amp; La Plata\8 &amp; Paraná\11 &amp; Resistencia\21 &amp; Santiago del Estero</t>
         </is>
       </c>
     </row>
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.037e-05</v>
+        <v>5.128e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>3.73e-05</v>
+        <v>3.614e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>4.57e-05</v>
+        <v>4.409e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>19852.00</t>
+          <t>19499.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;Neuquén-&gt;La Plata-&gt;Viedma-&gt;Santa Rosa-&gt;Ushuaia-&gt;San Luis-&gt;San Juan-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>17 &amp; San Juan\9 &amp; Posadas\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\7 &amp; Neuquén\16 &amp; Salta\21 &amp; Santiago del Estero\4 &amp; La Plata\1 &amp; Córdoba\6 &amp; Mendoza\18 &amp; San Luis\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\19 &amp; Santa Fe\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\0 &amp; CABA\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\17 &amp; San Juan</t>
         </is>
       </c>
     </row>
@@ -518,22 +518,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.037e-05</v>
+        <v>5.262e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.475e-05</v>
+        <v>4.971e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>5.018e-05</v>
+        <v>5.076e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19852.00</t>
+          <t>19005.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;Neuquén-&gt;La Plata-&gt;Viedma-&gt;Santa Rosa-&gt;Ushuaia-&gt;San Luis-&gt;San Juan-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>17 &amp; San Juan\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\9 &amp; Posadas\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\18 &amp; San Luis\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\19 &amp; Santa Fe\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\17 &amp; San Juan</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.037e-05</v>
+        <v>5.262e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>4.75e-05</v>
+        <v>3.6e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>5.027e-05</v>
+        <v>5.208e-05</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19852.00</t>
+          <t>19005.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;Neuquén-&gt;La Plata-&gt;Viedma-&gt;Santa Rosa-&gt;Ushuaia-&gt;San Luis-&gt;San Juan-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>17 &amp; San Juan\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\9 &amp; Posadas\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\18 &amp; San Luis\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\19 &amp; Santa Fe\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\17 &amp; San Juan</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.284e-05</v>
+        <v>5.262e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>4.309e-05</v>
+        <v>3.802e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>5.027e-05</v>
+        <v>5.221e-05</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18924.00</t>
+          <t>19005.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Santa Rosa-&gt;Ushuaia-&gt;Neuquén-&gt;San Juan-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>17 &amp; San Juan\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\9 &amp; Posadas\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\18 &amp; San Luis\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\19 &amp; Santa Fe\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\17 &amp; San Juan</t>
         </is>
       </c>
     </row>
@@ -590,22 +590,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.284e-05</v>
+        <v>5.634e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>4.811e-05</v>
+        <v>5.24e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>5.166e-05</v>
+        <v>5.268e-05</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18924.00</t>
+          <t>17749.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Santa Rosa-&gt;Ushuaia-&gt;Neuquén-&gt;San Juan-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>17 &amp; San Juan\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\18 &amp; San Luis\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\17 &amp; San Juan</t>
         </is>
       </c>
     </row>
@@ -614,22 +614,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.284e-05</v>
+        <v>5.634e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>5.153e-05</v>
+        <v>4.043e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>5.281e-05</v>
+        <v>5.369e-05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18924.00</t>
+          <t>17749.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Santa Rosa-&gt;Ushuaia-&gt;Neuquén-&gt;San Juan-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>17 &amp; San Juan\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\18 &amp; San Luis\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\20 &amp; Santa Rosa\15 &amp; San Salvador de Jujuy\17 &amp; San Juan</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.306e-05</v>
+        <v>5.772e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.534e-05</v>
+        <v>4.581e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>5.264e-05</v>
+        <v>5.599e-05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18846.00</t>
+          <t>17324.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Luis-&gt;La Plata-&gt;San Juan-&gt;Santa Rosa-&gt;Ushuaia-&gt;Neuquén-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>17 &amp; San Juan\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\18 &amp; San Luis\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\17 &amp; San Juan</t>
         </is>
       </c>
     </row>
@@ -662,22 +662,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.336e-05</v>
+        <v>5.799e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>4.917e-05</v>
+        <v>5.545e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>5.278e-05</v>
+        <v>5.705e-05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18739.00</t>
+          <t>17244.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Santa Rosa-&gt;Santa Fe-&gt;Neuquén-&gt;San Juan-&gt;CABA-&gt;Ushuaia-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>18 &amp; San Luis\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\18 &amp; San Luis</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.449e-05</v>
+        <v>5.799e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>4.685e-05</v>
+        <v>4.008e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>5.296e-05</v>
+        <v>5.737e-05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18350.00</t>
+          <t>17244.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Luis-&gt;La Plata-&gt;San Juan-&gt;Santa Rosa-&gt;Neuquén-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>18 &amp; San Luis\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\18 &amp; San Luis</t>
         </is>
       </c>
     </row>
@@ -710,22 +710,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.579e-05</v>
+        <v>5.799e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>4.792e-05</v>
+        <v>5.416e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>5.394e-05</v>
+        <v>5.788e-05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17924.00</t>
+          <t>17244.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;La Plata-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;San Miguel de Tucumán-&gt;Santiago del Estero-&gt;San Salvador de Jujuy</t>
+          <t>18 &amp; San Luis\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\18 &amp; San Luis</t>
         </is>
       </c>
     </row>
@@ -734,22 +734,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.64e-05</v>
+        <v>5.799e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>4.344e-05</v>
+        <v>5.044e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>5.529e-05</v>
+        <v>5.784e-05</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17729.00</t>
+          <t>17244.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;La Plata-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>18 &amp; San Luis\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\18 &amp; San Luis</t>
         </is>
       </c>
     </row>
@@ -758,22 +758,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.831e-05</v>
+        <v>5.799e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>5.579e-05</v>
+        <v>5.713e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>5.623e-05</v>
+        <v>5.797e-05</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17150.00</t>
+          <t>17244.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Santa Rosa-&gt;Neuquén-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>18 &amp; San Luis\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\0 &amp; CABA\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\18 &amp; San Luis</t>
         </is>
       </c>
     </row>
@@ -782,22 +782,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.831e-05</v>
+        <v>5.853e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>5.64e-05</v>
+        <v>5.499e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>5.724e-05</v>
+        <v>5.792e-05</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17150.00</t>
+          <t>17086.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Santa Rosa-&gt;Neuquén-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\18 &amp; San Luis\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -806,22 +806,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.831e-05</v>
+        <v>5.853e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.199e-05</v>
+        <v>4.722e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>5.818e-05</v>
+        <v>5.789e-05</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17150.00</t>
+          <t>17086.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Santa Rosa-&gt;Neuquén-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Río Gallegos-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\18 &amp; San Luis\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -830,22 +830,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.565e-05</v>
+        <v>5.853e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>5.694e-05</v>
+        <v>4.456e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>5.843e-05</v>
+        <v>5.8e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15231.00</t>
+          <t>17086.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Santa Rosa-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\18 &amp; San Luis\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -854,22 +854,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.565e-05</v>
+        <v>5.853e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>5.831e-05</v>
+        <v>5.805e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>6.169e-05</v>
+        <v>5.852e-05</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15231.00</t>
+          <t>17086.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Santa Rosa-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\18 &amp; San Luis\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -878,22 +878,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.565e-05</v>
+        <v>5.853e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>4.898e-05</v>
+        <v>4.539e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>6.527e-05</v>
+        <v>5.808e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15231.00</t>
+          <t>17086.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Santa Rosa-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\18 &amp; San Luis\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -902,22 +902,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.565e-05</v>
+        <v>5.853e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>6.039e-05</v>
+        <v>4.968e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>6.546e-05</v>
+        <v>5.824e-05</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15231.00</t>
+          <t>17086.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Santa Rosa-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Corrientes-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Formosa-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\20 &amp; Santa Rosa\1 &amp; Córdoba\6 &amp; Mendoza\7 &amp; Neuquén\18 &amp; San Luis\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.619e-05</v>
+        <v>5.888e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>5.418e-05</v>
+        <v>4.326e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>6.543e-05</v>
+        <v>5.778e-05</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15108.00</t>
+          <t>16983.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Santa Rosa-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Formosa-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\20 &amp; Santa Rosa\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\4 &amp; La Plata\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -950,22 +950,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.624e-05</v>
+        <v>5.971e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>5.394e-05</v>
+        <v>4.781e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>6.554999999999999e-05</v>
+        <v>5.848e-05</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15096.00</t>
+          <t>16749.00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Formosa-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\20 &amp; Santa Rosa\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -974,22 +974,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.624e-05</v>
+        <v>5.971e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>5.018e-05</v>
+        <v>4.756e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>6.588999999999999e-05</v>
+        <v>5.9e-05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15096.00</t>
+          <t>16749.00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Formosa-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\20 &amp; Santa Rosa\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -998,22 +998,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.624e-05</v>
+        <v>5.971e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>4.84e-05</v>
+        <v>4.115e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>6.574e-05</v>
+        <v>5.921e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15096.00</t>
+          <t>16749.00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Formosa-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\8 &amp; Paraná\20 &amp; Santa Rosa\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1022,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.624e-05</v>
+        <v>6.045e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>5.081e-05</v>
+        <v>5.971e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>6.572e-05</v>
+        <v>5.973e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15096.00</t>
+          <t>16543.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Formosa-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.624e-05</v>
+        <v>6.045e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>4.965e-05</v>
+        <v>4.43e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>6.562e-05</v>
+        <v>5.962e-05</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15096.00</t>
+          <t>16543.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Formosa-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.624e-05</v>
+        <v>6.045e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>5.543e-05</v>
+        <v>5.119e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>6.527e-05</v>
+        <v>6.015e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15096.00</t>
+          <t>16543.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Formosa-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1094,22 +1094,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.624e-05</v>
+        <v>6.045e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>5.668e-05</v>
+        <v>6.045e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>6.592000000000001e-05</v>
+        <v>6.045e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15096.00</t>
+          <t>16543.00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Córdoba-&gt;Formosa-&gt;Posadas-&gt;Paraná-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.633e-05</v>
+        <v>6.045e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>6.076e-05</v>
+        <v>5.384e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>6.613000000000001e-05</v>
+        <v>6.013e-05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15075.00</t>
+          <t>16543.00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1142,22 +1142,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.633e-05</v>
+        <v>6.045e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>5.812e-05</v>
+        <v>4.076e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>6.607e-05</v>
+        <v>5.969e-05</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15075.00</t>
+          <t>16543.00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Rosa-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\13 &amp; San Fernando del Valle de Catamarca\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\15 &amp; San Salvador de Jujuy\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>5.638e-05</v>
+        <v>5.047e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>6.613000000000001e-05</v>
+        <v>6.026e-05</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>16081.00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1190,22 +1190,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>5.782e-05</v>
+        <v>4.89e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>6.593e-05</v>
+        <v>6.06e-05</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>16081.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1214,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>5.65e-05</v>
+        <v>5.853e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>6.593e-05</v>
+        <v>6.211e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>16081.00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1238,22 +1238,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>6.427000000000001e-05</v>
+        <v>4.881e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>6.632e-05</v>
+        <v>6.189000000000001e-05</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>16081.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1262,22 +1262,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>6.113000000000001e-05</v>
+        <v>5.174e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>6.626000000000001e-05</v>
+        <v>6.17e-05</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>16081.00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>5.555e-05</v>
+        <v>5.981e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>6.604e-05</v>
+        <v>6.214e-05</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>16081.00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1310,22 +1310,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.219e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>6.533999999999999e-05</v>
+        <v>4.52e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>6.633e-05</v>
+        <v>6.167e-05</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>16081.00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\17 &amp; San Juan\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\20 &amp; Santa Rosa\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1334,22 +1334,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.405e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>5.614e-05</v>
+        <v>5.791e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>6.615e-05</v>
+        <v>6.209e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15612.00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1358,22 +1358,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.405e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>6.171e-05</v>
+        <v>6.021e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>6.619e-05</v>
+        <v>6.317000000000001e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15612.00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\2 &amp; Corrientes\9 &amp; Posadas\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1382,22 +1382,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.409e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>5.361e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.368e-05</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15603.00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.409e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>5.912e-05</v>
+        <v>6.405e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>6.622e-05</v>
+        <v>6.407e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15603.00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1430,22 +1430,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.409e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>5.301e-05</v>
+        <v>5.981e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>6.594e-05</v>
+        <v>6.4e-05</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15603.00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1454,22 +1454,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.409e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>5.088e-05</v>
+        <v>5.593e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>6.556e-05</v>
+        <v>6.371e-05</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15603.00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\3 &amp; Formosa\11 &amp; Resistencia\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1478,22 +1478,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.417e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>5.814e-05</v>
+        <v>6.409e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>6.62e-05</v>
+        <v>6.409e-05</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15584.00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1502,22 +1502,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.417e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>6.414000000000001e-05</v>
+        <v>5.832e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>6.624e-05</v>
+        <v>6.381e-05</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15584.00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.417e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>5.57e-05</v>
+        <v>5.46e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>6.615e-05</v>
+        <v>6.393000000000001e-05</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15584.00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1550,22 +1550,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.417e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>4.631e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.381e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15584.00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>0 &amp; CABA\4 &amp; La Plata\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA</t>
         </is>
       </c>
     </row>
@@ -1574,22 +1574,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.417e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>4.819e-05</v>
+        <v>6.417e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>6.574e-05</v>
+        <v>6.417e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15583.00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>4 &amp; La Plata\0 &amp; CABA\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\4 &amp; La Plata</t>
         </is>
       </c>
     </row>
@@ -1598,22 +1598,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.417e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>6.245e-05</v>
+        <v>5.724e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>6.628e-05</v>
+        <v>6.403e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15583.00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>4 &amp; La Plata\0 &amp; CABA\1 &amp; Córdoba\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\4 &amp; La Plata</t>
         </is>
       </c>
     </row>
@@ -1622,22 +1622,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.635999999999999e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>5.915e-05</v>
+        <v>4.279e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>6.621e-05</v>
+        <v>6.328e-05</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15068.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;La Plata-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;Santa Fe-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1646,22 +1646,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>5.4e-05</v>
+        <v>6.117999999999999e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>6.606e-05</v>
+        <v>6.433e-05</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1670,22 +1670,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>5.062e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>6.707000000000001e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1694,22 +1694,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>4.608e-05</v>
+        <v>4.674e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>6.779999999999999e-05</v>
+        <v>6.444e-05</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1718,22 +1718,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>6.055e-05</v>
+        <v>4.309e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>6.904e-05</v>
+        <v>6.431e-05</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1742,22 +1742,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>6.096e-05</v>
+        <v>4.629e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>6.904e-05</v>
+        <v>6.448000000000001e-05</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>4.884e-05</v>
+        <v>4.455e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>6.834999999999999e-05</v>
+        <v>6.407e-05</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1790,22 +1790,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>5.095e-05</v>
+        <v>5.495e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>6.884e-05</v>
+        <v>6.427000000000001e-05</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1814,22 +1814,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>4.984e-05</v>
+        <v>4.479e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>6.868999999999999e-05</v>
+        <v>6.446e-05</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1838,22 +1838,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>6.215000000000001e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>6.899e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1862,22 +1862,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>5.489e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>6.857e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>5.37e-05</v>
+        <v>5.421e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>6.836e-05</v>
+        <v>6.452999999999999e-05</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1910,22 +1910,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>5.293e-05</v>
+        <v>4.958e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>6.878e-05</v>
+        <v>6.436e-05</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1934,22 +1934,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>5.745e-05</v>
+        <v>5.907e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>6.884e-05</v>
+        <v>6.451e-05</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1958,22 +1958,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>6.439e-05</v>
+        <v>4.556e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>6.910999999999999e-05</v>
+        <v>6.436e-05</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>5.877e-05</v>
+        <v>5.689e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>6.875e-05</v>
+        <v>6.448000000000001e-05</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2006,22 +2006,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>6.283000000000001e-05</v>
+        <v>5.867e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>6.908e-05</v>
+        <v>6.473999999999999e-05</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2030,22 +2030,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>5.399e-05</v>
+        <v>4.309e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>6.886e-05</v>
+        <v>6.431999999999999e-05</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2054,22 +2054,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>5.306e-05</v>
+        <v>6.455e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>6.855e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2078,22 +2078,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.921e-05</v>
+        <v>6.486e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>5.663e-05</v>
+        <v>5.014e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>6.896e-05</v>
+        <v>6.43e-05</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15417.00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\21 &amp; Santiago del Estero\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\13 &amp; San Fernando del Valle de Catamarca\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2102,22 +2102,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.921e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>5.306e-05</v>
+        <v>5.959e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>6.87e-05</v>
+        <v>6.477e-05</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2126,22 +2126,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.921e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>6.439e-05</v>
+        <v>5.976e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>6.910999999999999e-05</v>
+        <v>6.485e-05</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2150,22 +2150,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.921e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>6.921e-05</v>
+        <v>5.405e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>6.921e-05</v>
+        <v>6.497e-05</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2174,22 +2174,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.921e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>6.209e-05</v>
+        <v>4.695e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>6.894e-05</v>
+        <v>6.478999999999999e-05</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2198,22 +2198,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.921e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>4.984e-05</v>
+        <v>5.348e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>6.878e-05</v>
+        <v>6.503000000000001e-05</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2222,22 +2222,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.921e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>4.853e-05</v>
+        <v>5.976e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>6.880000000000001e-05</v>
+        <v>6.512e-05</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2246,22 +2246,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.921e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>6.45e-05</v>
+        <v>5.348e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>6.909e-05</v>
+        <v>6.504e-05</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2270,22 +2270,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.921e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>6.014e-05</v>
+        <v>6.473e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>6.902999999999999e-05</v>
+        <v>6.527e-05</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>14448.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Viedma-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Neuquén-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2294,22 +2294,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.974000000000001e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>6.089e-05</v>
+        <v>5.721e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>6.905e-05</v>
+        <v>6.492e-05</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>14339.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2318,22 +2318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.974000000000001e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>6.328e-05</v>
+        <v>4.939e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>6.923e-05</v>
+        <v>6.455e-05</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>14339.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2342,22 +2342,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.974000000000001e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>4.922e-05</v>
+        <v>5.837e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>6.878e-05</v>
+        <v>6.497e-05</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14339.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2366,22 +2366,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.974000000000001e-05</v>
+        <v>6.528e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>5.371e-05</v>
+        <v>5.403e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>6.914000000000001e-05</v>
+        <v>6.494e-05</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14339.00</t>
+          <t>15319.00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>1 &amp; Córdoba\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\13 &amp; San Fernando del Valle de Catamarca\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\1 &amp; Córdoba</t>
         </is>
       </c>
     </row>
@@ -2390,22 +2390,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.974000000000001e-05</v>
+        <v>6.648e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>5.371e-05</v>
+        <v>5.673e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>6.931e-05</v>
+        <v>6.509e-05</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14339.00</t>
+          <t>15042.00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;La Rioja-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>13 &amp; San Fernando del Valle de Catamarca\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\8 &amp; Paraná\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\13 &amp; San Fernando del Valle de Catamarca</t>
         </is>
       </c>
     </row>
@@ -2414,22 +2414,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.028e-05</v>
+        <v>7.146e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>4.842e-05</v>
+        <v>4.539e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>6.882e-05</v>
+        <v>6.518e-05</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14227.00</t>
+          <t>13993.00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.028e-05</v>
+        <v>7.146e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>6.974000000000001e-05</v>
+        <v>6.056e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>6.994e-05</v>
+        <v>6.779e-05</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14227.00</t>
+          <t>13993.00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2462,22 +2462,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.028e-05</v>
+        <v>7.146e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>5.045e-05</v>
+        <v>4.984e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>6.973e-05</v>
+        <v>7.087e-05</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14227.00</t>
+          <t>13993.00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.028e-05</v>
+        <v>7.156999999999999e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>5.911e-05</v>
+        <v>4.516e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>6.991e-05</v>
+        <v>7.02e-05</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14227.00</t>
+          <t>13972.00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2510,22 +2510,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.028e-05</v>
+        <v>7.156999999999999e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>5.909e-05</v>
+        <v>6.135e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>6.969000000000001e-05</v>
+        <v>7.093e-05</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>14227.00</t>
+          <t>13972.00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Salta-&gt;Mendoza-&gt;San Luis-&gt;San Juan-&gt;La Rioja-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2534,22 +2534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.139000000000001e-05</v>
+        <v>7.156999999999999e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>5.742e-05</v>
+        <v>5.841e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>7.005e-05</v>
+        <v>7.098e-05</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>14007.00</t>
+          <t>13972.00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\6 &amp; Mendoza\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\20 &amp; Santa Rosa\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2558,22 +2558,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.139000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>5.171e-05</v>
+        <v>5.983e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>7.041999999999999e-05</v>
+        <v>7.134e-05</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>14007.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2582,22 +2582,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.139000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>5.993e-05</v>
+        <v>6.382e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>7.104e-05</v>
+        <v>7.154e-05</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14007.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2606,22 +2606,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.139000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>5.096e-05</v>
+        <v>6.324e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>7.098e-05</v>
+        <v>7.148e-05</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>14007.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2630,22 +2630,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.139000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C92" t="n">
-        <v>6.307e-05</v>
+        <v>6.448000000000001e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>7.122e-05</v>
+        <v>7.160000000000001e-05</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>14007.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2654,22 +2654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.139000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>5.109e-05</v>
+        <v>4.655e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>7.067e-05</v>
+        <v>7.13e-05</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>14007.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2678,22 +2678,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.139000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>4.951e-05</v>
+        <v>6.032e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>7.033999999999999e-05</v>
+        <v>7.152000000000001e-05</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>14007.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.139000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C95" t="n">
-        <v>5.312e-05</v>
+        <v>4.563e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>7.064e-05</v>
+        <v>7.099e-05</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>14007.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Formosa-&gt;Posadas-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.186000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>4.578e-05</v>
+        <v>6.285e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>7.058000000000001e-05</v>
+        <v>7.152000000000001e-05</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>13914.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2750,22 +2750,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.186000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>5.815e-05</v>
+        <v>6.106e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>7.132e-05</v>
+        <v>7.158e-05</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>13914.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2774,22 +2774,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.186000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>6.026e-05</v>
+        <v>4.757e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>7.159e-05</v>
+        <v>7.046999999999999e-05</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>13914.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;San Luis-&gt;San Juan-&gt;Mendoza-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2798,22 +2798,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.304000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>5.399e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>7.147000000000001e-05</v>
+        <v>7.181000000000001e-05</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>13691.00</t>
+          <t>13926.00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\1 &amp; Córdoba\19 &amp; Santa Fe\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2822,22 +2822,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.304000000000001e-05</v>
+        <v>7.217e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>5.859e-05</v>
+        <v>4.529e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>7.202000000000001e-05</v>
+        <v>7.125e-05</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>13691.00</t>
+          <t>13857.00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2846,22 +2846,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.304000000000001e-05</v>
+        <v>7.217e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>6.061e-05</v>
+        <v>6.943e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>7.252e-05</v>
+        <v>7.188e-05</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>13691.00</t>
+          <t>13857.00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2870,22 +2870,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.304000000000001e-05</v>
+        <v>7.217e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>5.638e-05</v>
+        <v>5.967e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>7.241000000000001e-05</v>
+        <v>7.164999999999999e-05</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>13691.00</t>
+          <t>13857.00</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2894,22 +2894,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.304000000000001e-05</v>
+        <v>7.217e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>6.203e-05</v>
+        <v>5.564e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>7.275000000000001e-05</v>
+        <v>7.138e-05</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>13691.00</t>
+          <t>13857.00</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2918,22 +2918,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.304000000000001e-05</v>
+        <v>7.217e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>6.34e-05</v>
+        <v>5.895e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>7.269e-05</v>
+        <v>7.168e-05</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>13691.00</t>
+          <t>13857.00</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Resistencia-&gt;Corrientes-&gt;Santiago del Estero-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2942,22 +2942,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.321e-05</v>
+        <v>7.217e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>7.304000000000001e-05</v>
+        <v>4.578e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>7.304000000000001e-05</v>
+        <v>7.159e-05</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>13658.00</t>
+          <t>13857.00</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2966,22 +2966,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.321e-05</v>
+        <v>7.217e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>5.841e-05</v>
+        <v>5.752e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>7.256e-05</v>
+        <v>7.177e-05</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>13658.00</t>
+          <t>13857.00</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\18 &amp; San Luis\7 &amp; Neuquén\20 &amp; Santa Rosa\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -2990,22 +2990,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.321e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>5.436e-05</v>
+        <v>5.48e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>7.283000000000001e-05</v>
+        <v>7.168e-05</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>13658.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.321e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>5.858e-05</v>
+        <v>5.696e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>7.275000000000001e-05</v>
+        <v>7.207000000000001e-05</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>13658.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3038,22 +3038,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.321e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>6.853e-05</v>
+        <v>5.247e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>7.300999999999999e-05</v>
+        <v>7.313e-05</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>13658.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Fe-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Rosa-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3062,22 +3062,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.518e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>5.053e-05</v>
+        <v>7.059e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>7.232999999999999e-05</v>
+        <v>7.355999999999999e-05</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>13301.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Córdoba-&gt;San Fernando del Valle de Catamarca-&gt;Santiago del Estero-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7.548e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>4.981e-05</v>
+        <v>5.822e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>7.351000000000001e-05</v>
+        <v>7.262000000000001e-05</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>13248.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3110,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7.548e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>6.347e-05</v>
+        <v>7.263e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>7.499e-05</v>
+        <v>7.36e-05</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>13248.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3134,22 +3134,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7.548e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>5.919e-05</v>
+        <v>6.104e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>7.515e-05</v>
+        <v>7.337e-05</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>13248.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3158,22 +3158,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.548e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>5.416e-05</v>
+        <v>7.36e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>7.481e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>13248.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;CABA-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;Paraná-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3182,22 +3182,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>6.846000000000001e-05</v>
+        <v>5.57e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>7.533999999999999e-05</v>
+        <v>7.303e-05</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3206,22 +3206,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>5.732e-05</v>
+        <v>4.851e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>7.514e-05</v>
+        <v>7.312e-05</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3230,22 +3230,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>5.76e-05</v>
+        <v>4.414e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>7.501e-05</v>
+        <v>7.239e-05</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>5.565e-05</v>
+        <v>6.976e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>7.493e-05</v>
+        <v>7.347e-05</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>7.028e-05</v>
+        <v>5.15e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>7.556e-05</v>
+        <v>7.251e-05</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3302,22 +3302,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>6.504e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>7.491999999999999e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3326,22 +3326,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>6.195e-05</v>
+        <v>6.812000000000001e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>7.515e-05</v>
+        <v>7.347e-05</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3350,22 +3350,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>7.578e-05</v>
+        <v>6.437e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>7.579e-05</v>
+        <v>7.344e-05</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3374,22 +3374,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>5.921e-05</v>
+        <v>4.836e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>7.529000000000001e-05</v>
+        <v>7.26e-05</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3398,22 +3398,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>6.672e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>7.554e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3422,22 +3422,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>5.619e-05</v>
+        <v>6.637e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>7.536e-05</v>
+        <v>7.32e-05</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3446,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>6.841e-05</v>
+        <v>5.822e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>7.564e-05</v>
+        <v>7.329e-05</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3470,22 +3470,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>4.696e-05</v>
+        <v>5.635e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>7.404e-05</v>
+        <v>7.273e-05</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3494,22 +3494,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>7.579e-05</v>
+        <v>6.156999999999999e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>7.579e-05</v>
+        <v>7.297e-05</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3518,22 +3518,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C129" t="n">
-        <v>7.579e-05</v>
+        <v>6.211e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>7.579e-05</v>
+        <v>7.312e-05</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3542,22 +3542,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C130" t="n">
-        <v>5.398e-05</v>
+        <v>6.102e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>7.514e-05</v>
+        <v>7.337e-05</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3566,22 +3566,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C131" t="n">
-        <v>5.794e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>7.474000000000001e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3590,22 +3590,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C132" t="n">
-        <v>6.195e-05</v>
+        <v>6.573e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>7.529000000000001e-05</v>
+        <v>7.332e-05</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3614,22 +3614,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C133" t="n">
-        <v>5.76e-05</v>
+        <v>6.729e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>7.482000000000001e-05</v>
+        <v>7.341e-05</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3638,22 +3638,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7.579e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="C134" t="n">
-        <v>5.316e-05</v>
+        <v>4.836e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>7.521000000000001e-05</v>
+        <v>7.252e-05</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13583.00</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\1 &amp; Córdoba\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\21 &amp; Santiago del Estero\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3662,22 +3662,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7.579e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C135" t="n">
-        <v>7.129e-05</v>
+        <v>6.539e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>7.567e-05</v>
+        <v>7.34e-05</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7.579e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C136" t="n">
-        <v>5.063e-05</v>
+        <v>5.702e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>7.522e-05</v>
+        <v>7.311e-05</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>13193.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Neuquén-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Rawson-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3710,22 +3710,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7.732e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C137" t="n">
-        <v>5.85e-05</v>
+        <v>4.903e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>7.482000000000001e-05</v>
+        <v>7.318e-05</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>12933.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3734,22 +3734,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7.732e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C138" t="n">
-        <v>6.37e-05</v>
+        <v>4.466e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>7.593e-05</v>
+        <v>7.241000000000001e-05</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>12933.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;La Plata-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;Viedma-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3758,22 +3758,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>7.386e-05</v>
+        <v>7.249000000000001e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>7.724e-05</v>
+        <v>7.371e-05</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3782,22 +3782,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>6.473999999999999e-05</v>
+        <v>6.373e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>7.789e-05</v>
+        <v>7.353e-05</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>6.664999999999999e-05</v>
+        <v>6.616e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>7.928e-05</v>
+        <v>7.35e-05</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3830,22 +3830,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>6.729e-05</v>
+        <v>6.472e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>7.914e-05</v>
+        <v>7.329e-05</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3854,22 +3854,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>7.9e-05</v>
+        <v>6.373e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>7.953000000000001e-05</v>
+        <v>7.353e-05</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3878,22 +3878,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C144" t="n">
-        <v>5.829e-05</v>
+        <v>7.04e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>7.833e-05</v>
+        <v>7.359000000000001e-05</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3902,22 +3902,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C145" t="n">
-        <v>6.229e-05</v>
+        <v>7.098e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>7.92e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3926,22 +3926,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C146" t="n">
-        <v>4.728e-05</v>
+        <v>6.604e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>7.834999999999999e-05</v>
+        <v>7.358e-05</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3950,22 +3950,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C147" t="n">
-        <v>5.314e-05</v>
+        <v>6.745e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>7.9e-05</v>
+        <v>7.36e-05</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3974,22 +3974,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C148" t="n">
-        <v>6.229e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>7.894e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -3998,22 +3998,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C149" t="n">
-        <v>5.485e-05</v>
+        <v>6.211999999999999e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>7.905e-05</v>
+        <v>7.35e-05</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4022,22 +4022,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C150" t="n">
-        <v>5.395e-05</v>
+        <v>5.264e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>7.868e-05</v>
+        <v>7.305e-05</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4046,22 +4046,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C151" t="n">
-        <v>5.304e-05</v>
+        <v>5.725e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>7.839999999999999e-05</v>
+        <v>7.308e-05</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4070,22 +4070,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C152" t="n">
-        <v>7.179e-05</v>
+        <v>6.273e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>7.935e-05</v>
+        <v>7.317000000000001e-05</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4094,22 +4094,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C153" t="n">
-        <v>4.636e-05</v>
+        <v>5.805e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>7.888e-05</v>
+        <v>7.329e-05</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4118,22 +4118,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C154" t="n">
-        <v>5.587e-05</v>
+        <v>5.641e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>7.894999999999999e-05</v>
+        <v>7.271e-05</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4142,22 +4142,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C155" t="n">
-        <v>6.187e-05</v>
+        <v>6.342999999999999e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>7.849e-05</v>
+        <v>7.35e-05</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4166,22 +4166,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C156" t="n">
-        <v>5.97e-05</v>
+        <v>5.08e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>7.885000000000001e-05</v>
+        <v>7.318e-05</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4190,22 +4190,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C157" t="n">
-        <v>6.732999999999999e-05</v>
+        <v>7.228000000000001e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>7.899e-05</v>
+        <v>7.37e-05</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4214,22 +4214,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C158" t="n">
-        <v>4.821e-05</v>
+        <v>5.192e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>7.826e-05</v>
+        <v>7.266999999999999e-05</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4238,22 +4238,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>7.954e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>6.832e-05</v>
+        <v>6.153e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>7.897e-05</v>
+        <v>7.292999999999999e-05</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>12571.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Paraná-&gt;Santa Fe-&gt;Neuquén-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4262,22 +4262,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>6.325000000000001e-05</v>
+        <v>6.397999999999999e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>7.938e-05</v>
+        <v>7.347999999999999e-05</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C161" t="n">
-        <v>5.609e-05</v>
+        <v>4.99e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>8.137e-05</v>
+        <v>7.271999999999999e-05</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4310,22 +4310,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C162" t="n">
-        <v>6.626000000000001e-05</v>
+        <v>6.842e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>8.627e-05</v>
+        <v>7.349e-05</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4334,22 +4334,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C163" t="n">
-        <v>7.062e-05</v>
+        <v>4.99e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>8.653999999999999e-05</v>
+        <v>7.312e-05</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4358,22 +4358,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C164" t="n">
-        <v>5.201e-05</v>
+        <v>4.508e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>8.593e-05</v>
+        <v>7.287e-05</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4382,22 +4382,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C165" t="n">
-        <v>5.13e-05</v>
+        <v>6.283000000000001e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>8.551e-05</v>
+        <v>7.336e-05</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4406,22 +4406,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C166" t="n">
-        <v>8.728e-05</v>
+        <v>6.745e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>8.739e-05</v>
+        <v>7.347999999999999e-05</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4430,22 +4430,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C167" t="n">
-        <v>4.99e-05</v>
+        <v>6.164e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>8.59e-05</v>
+        <v>7.337e-05</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4454,22 +4454,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C168" t="n">
-        <v>8.739e-05</v>
+        <v>5.808e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>8.739e-05</v>
+        <v>7.31e-05</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4478,22 +4478,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C169" t="n">
-        <v>7.368999999999999e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>8.697e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4502,22 +4502,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>7.550000000000001e-05</v>
+        <v>5.106e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>8.695999999999999e-05</v>
+        <v>7.295e-05</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4526,22 +4526,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>8.568000000000001e-05</v>
+        <v>6.153e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>8.736e-05</v>
+        <v>7.307e-05</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4550,22 +4550,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>8.648e-05</v>
+        <v>6.505e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>8.737e-05</v>
+        <v>7.323e-05</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4574,22 +4574,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>8.739e-05</v>
+        <v>7.373e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>7.099e-05</v>
+        <v>6.26e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>8.706e-05</v>
+        <v>7.339e-05</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13563.00</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\10 &amp; Rawson\12 &amp; Río Gallegos\22 &amp; Ushuaia\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4598,22 +4598,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>8.739e-05</v>
+        <v>7.397e-05</v>
       </c>
       <c r="C174" t="n">
-        <v>5.742e-05</v>
+        <v>5.926e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>8.622e-05</v>
+        <v>7.344e-05</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13519.00</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4622,22 +4622,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>8.739e-05</v>
+        <v>7.397e-05</v>
       </c>
       <c r="C175" t="n">
-        <v>7.036e-05</v>
+        <v>5.669e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>8.655e-05</v>
+        <v>7.329e-05</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13519.00</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4646,22 +4646,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>8.739e-05</v>
+        <v>7.397e-05</v>
       </c>
       <c r="C176" t="n">
-        <v>7.660000000000001e-05</v>
+        <v>6.457999999999999e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>8.716999999999999e-05</v>
+        <v>7.360999999999999e-05</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13519.00</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4670,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>8.739e-05</v>
+        <v>7.397e-05</v>
       </c>
       <c r="C177" t="n">
-        <v>6.689000000000001e-05</v>
+        <v>5.043e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>8.671e-05</v>
+        <v>7.31e-05</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13519.00</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\19 &amp; Santa Fe\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\5 &amp; La Rioja\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4694,22 +4694,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>8.739e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="C178" t="n">
-        <v>6.796000000000001e-05</v>
+        <v>7.397e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>8.617e-05</v>
+        <v>7.399e-05</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13342.00</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4718,22 +4718,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>8.739e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="C179" t="n">
-        <v>6.967e-05</v>
+        <v>6.111e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>8.684e-05</v>
+        <v>7.412e-05</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13342.00</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4742,22 +4742,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>8.739e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="C180" t="n">
-        <v>5.231e-05</v>
+        <v>5.176e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>8.589000000000001e-05</v>
+        <v>7.402e-05</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13342.00</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4766,22 +4766,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>8.739e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="C181" t="n">
-        <v>7.024000000000001e-05</v>
+        <v>5.583e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>8.671e-05</v>
+        <v>7.415e-05</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>11442.00</t>
+          <t>13342.00</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Salta-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;San Miguel de Tucumán-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4790,22 +4790,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>8.829e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="C182" t="n">
-        <v>6.931999999999999e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>8.694e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>13342.00</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4814,22 +4814,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>8.829e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="C183" t="n">
-        <v>4.751e-05</v>
+        <v>6.135e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>8.631000000000001e-05</v>
+        <v>7.415999999999999e-05</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>13342.00</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4838,22 +4838,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>8.829e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="C184" t="n">
-        <v>6.8e-05</v>
+        <v>4.876e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>8.789e-05</v>
+        <v>7.362e-05</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>13342.00</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4862,22 +4862,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>8.829e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="C185" t="n">
-        <v>5.754e-05</v>
+        <v>6.56e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>8.668e-05</v>
+        <v>7.447e-05</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>13342.00</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>8.829e-05</v>
+        <v>7.495000000000001e-05</v>
       </c>
       <c r="C186" t="n">
-        <v>8.829e-05</v>
+        <v>6.308e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>8.829e-05</v>
+        <v>7.435e-05</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>13342.00</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\22 &amp; Ushuaia\12 &amp; Río Gallegos\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4910,22 +4910,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>8.829e-05</v>
+        <v>7.511e-05</v>
       </c>
       <c r="C187" t="n">
-        <v>7.742e-05</v>
+        <v>7.027e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>8.801000000000001e-05</v>
+        <v>7.486e-05</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>13313.00</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4934,22 +4934,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>8.829e-05</v>
+        <v>7.511e-05</v>
       </c>
       <c r="C188" t="n">
-        <v>5.687e-05</v>
+        <v>6.572e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>8.758e-05</v>
+        <v>7.473e-05</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>13313.00</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>8.829e-05</v>
+        <v>7.511e-05</v>
       </c>
       <c r="C189" t="n">
-        <v>7.147000000000001e-05</v>
+        <v>6.871e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>8.774e-05</v>
+        <v>7.491e-05</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>13313.00</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\21 &amp; Santiago del Estero\15 &amp; San Salvador de Jujuy\16 &amp; Salta\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -4982,22 +4982,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>8.829e-05</v>
+        <v>7.524e-05</v>
       </c>
       <c r="C190" t="n">
-        <v>6.008e-05</v>
+        <v>6.069e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>8.773e-05</v>
+        <v>7.407e-05</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>13291.00</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\19 &amp; Santa Fe\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\1 &amp; Córdoba\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5006,22 +5006,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>8.829e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C191" t="n">
-        <v>5.022e-05</v>
+        <v>4.82e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>8.736e-05</v>
+        <v>7.42e-05</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>8.829e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C192" t="n">
-        <v>6.312000000000001e-05</v>
+        <v>4.638e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>8.769e-05</v>
+        <v>7.475e-05</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5054,22 +5054,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>8.829e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C193" t="n">
-        <v>5.795e-05</v>
+        <v>4.501e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>8.747e-05</v>
+        <v>7.567e-05</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5078,22 +5078,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>8.829e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C194" t="n">
-        <v>7.096e-05</v>
+        <v>4.895e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>8.786e-05</v>
+        <v>7.629e-05</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5102,22 +5102,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>8.829e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C195" t="n">
-        <v>8.829e-05</v>
+        <v>6.210000000000001e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>8.829e-05</v>
+        <v>7.629e-05</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5126,22 +5126,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>8.829e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C196" t="n">
-        <v>5.646e-05</v>
+        <v>6.013e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>8.684e-05</v>
+        <v>7.556e-05</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>11325.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;La Plata-&gt;CABA-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5150,22 +5150,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>8.852e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C197" t="n">
-        <v>7.813e-05</v>
+        <v>5.453e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>8.789e-05</v>
+        <v>7.648999999999999e-05</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>11296.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5174,22 +5174,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>8.852e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C198" t="n">
-        <v>7.041e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>8.802e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>11296.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5198,22 +5198,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>8.852e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C199" t="n">
-        <v>8.852e-05</v>
+        <v>6.481e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>8.852e-05</v>
+        <v>7.642e-05</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>11296.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5222,22 +5222,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>8.852e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C200" t="n">
-        <v>5.689e-05</v>
+        <v>5.93e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>8.708999999999999e-05</v>
+        <v>7.663e-05</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>11296.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5246,22 +5246,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>8.852e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C201" t="n">
-        <v>6.729e-05</v>
+        <v>6.896e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>8.809000000000001e-05</v>
+        <v>7.69e-05</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>11296.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
@@ -5270,22 +5270,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>8.852e-05</v>
+        <v>7.707000000000001e-05</v>
       </c>
       <c r="C202" t="n">
-        <v>8.712000000000001e-05</v>
+        <v>6.064e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>8.849e-05</v>
+        <v>7.656999999999999e-05</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>11296.00</t>
+          <t>12976.00</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>San Miguel de Tucumán-&gt;La Rioja-&gt;Mendoza-&gt;San Juan-&gt;San Luis-&gt;Santa Rosa-&gt;Rawson-&gt;Río Gallegos-&gt;Ushuaia-&gt;Viedma-&gt;Neuquén-&gt;Santa Fe-&gt;Paraná-&gt;CABA-&gt;La Plata-&gt;Posadas-&gt;Formosa-&gt;Santiago del Estero-&gt;San Fernando del Valle de Catamarca-&gt;Córdoba-&gt;Corrientes-&gt;Resistencia-&gt;Salta-&gt;San Salvador de Jujuy</t>
+          <t>8 &amp; Paraná\0 &amp; CABA\4 &amp; La Plata\20 &amp; Santa Rosa\7 &amp; Neuquén\18 &amp; San Luis\5 &amp; La Rioja\16 &amp; Salta\15 &amp; San Salvador de Jujuy\21 &amp; Santiago del Estero\6 &amp; Mendoza\12 &amp; Río Gallegos\22 &amp; Ushuaia\10 &amp; Rawson\23 &amp; Viedma\9 &amp; Posadas\2 &amp; Corrientes\11 &amp; Resistencia\3 &amp; Formosa\1 &amp; Córdoba\17 &amp; San Juan\13 &amp; San Fernando del Valle de Catamarca\14 &amp; San Miguel de Tucumán\19 &amp; Santa Fe\8 &amp; Paraná</t>
         </is>
       </c>
     </row>
